--- a/backend/fms_core/tests/invalid_templates/Sample_pooling_v3_13_0_different_kinds.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Sample_pooling_v3_13_0_different_kinds.xlsx
@@ -21,8 +21,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Used for index validation. If left empty, the validation will be skipped.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="441">
   <si>
     <t xml:space="preserve">Sample Pooling Template</t>
   </si>
@@ -54,6 +78,9 @@
     <t xml:space="preserve">Destination Parent Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Seq Instrument Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pooling Date (YYYY-MM-DD)</t>
   </si>
   <si>
@@ -72,6 +99,9 @@
     <t xml:space="preserve">96-well plate</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina MiSeq</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022-05-13</t>
   </si>
   <si>
@@ -147,12 +177,18 @@
     <t xml:space="preserve">B01</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina NovaSeq 6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">C01</t>
   </si>
   <si>
     <t xml:space="preserve">384-well plate</t>
   </si>
   <si>
+    <t xml:space="preserve">DNBSEQ-G400</t>
+  </si>
+  <si>
     <t xml:space="preserve">A04</t>
   </si>
   <si>
@@ -160,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 2x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-T7</t>
   </si>
   <si>
     <t xml:space="preserve">A05</t>
@@ -2067,13 +2106,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.38"/>
@@ -2121,38 +2160,44 @@
       <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,8 +2210,9 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16"/>
@@ -2178,8 +2224,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
@@ -2191,8 +2238,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
@@ -2204,8 +2252,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
@@ -2217,8 +2266,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
@@ -2230,8 +2280,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
@@ -2243,8 +2294,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
@@ -2256,8 +2308,9 @@
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
@@ -2269,8 +2322,9 @@
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
@@ -2282,8 +2336,9 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
@@ -2295,8 +2350,9 @@
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
@@ -2308,8 +2364,9 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -2321,8 +2378,9 @@
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="17"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
@@ -2334,8 +2392,9 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
@@ -2347,8 +2406,9 @@
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
@@ -2360,8 +2420,9 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
@@ -2373,8 +2434,9 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
@@ -2386,8 +2448,9 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
@@ -2399,8 +2462,9 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16"/>
@@ -2412,8 +2476,9 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="17"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
@@ -2425,8 +2490,9 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
@@ -2438,8 +2504,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
@@ -2451,8 +2518,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
@@ -2464,8 +2532,9 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
@@ -2477,8 +2546,9 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
@@ -2490,8 +2560,9 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="17"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
@@ -2503,8 +2574,9 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="17"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
@@ -2516,8 +2588,9 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="17"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
@@ -2529,8 +2602,9 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="17"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16"/>
@@ -2542,8 +2616,9 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="17"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
@@ -2555,8 +2630,9 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="17"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16"/>
@@ -2568,8 +2644,9 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="17"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
@@ -2581,8 +2658,9 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="17"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
@@ -2594,8 +2672,9 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="17"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
@@ -2607,8 +2686,9 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="17"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -2620,8 +2700,9 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="17"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
@@ -2633,8 +2714,9 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="17"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16"/>
@@ -2646,8 +2728,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="17"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16"/>
@@ -2659,8 +2742,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="17"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16"/>
@@ -2672,8 +2756,9 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="17"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16"/>
@@ -2685,8 +2770,9 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="17"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16"/>
@@ -2698,8 +2784,9 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="17"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16"/>
@@ -2711,8 +2798,9 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="17"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16"/>
@@ -2724,8 +2812,9 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="17"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16"/>
@@ -2737,8 +2826,9 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="17"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16"/>
@@ -2750,8 +2840,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="17"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16"/>
@@ -2763,8 +2854,9 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="17"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16"/>
@@ -2776,8 +2868,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="17"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16"/>
@@ -2789,8 +2882,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="17"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16"/>
@@ -2802,8 +2896,9 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="17"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16"/>
@@ -2815,8 +2910,9 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="17"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16"/>
@@ -2828,8 +2924,9 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="17"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16"/>
@@ -2841,8 +2938,9 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="17"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16"/>
@@ -2854,8 +2952,9 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="17"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16"/>
@@ -2867,8 +2966,9 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="17"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16"/>
@@ -2880,8 +2980,9 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="17"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16"/>
@@ -2893,8 +2994,9 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="17"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16"/>
@@ -2906,8 +3008,9 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="17"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16"/>
@@ -2919,8 +3022,9 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="17"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16"/>
@@ -2932,8 +3036,9 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="17"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16"/>
@@ -2945,8 +3050,9 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="17"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16"/>
@@ -2958,8 +3064,9 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="17"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16"/>
@@ -2971,8 +3078,9 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="17"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16"/>
@@ -2984,8 +3092,9 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
       <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="17"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16"/>
@@ -2997,8 +3106,9 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="17"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16"/>
@@ -3010,8 +3120,9 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="17"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="16"/>
@@ -3023,8 +3134,9 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="17"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16"/>
@@ -3036,8 +3148,9 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
       <c r="I72" s="13"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="17"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16"/>
@@ -3049,8 +3162,9 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="17"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="16"/>
@@ -3062,8 +3176,9 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="17"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="16"/>
@@ -3075,8 +3190,9 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="17"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16"/>
@@ -3088,8 +3204,9 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
       <c r="I76" s="13"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="17"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16"/>
@@ -3101,8 +3218,9 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="17"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16"/>
@@ -3114,8 +3232,9 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
       <c r="I78" s="13"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="17"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16"/>
@@ -3127,8 +3246,9 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="17"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16"/>
@@ -3140,8 +3260,9 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
       <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="17"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16"/>
@@ -3153,8 +3274,9 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="17"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16"/>
@@ -3166,8 +3288,9 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
       <c r="I82" s="13"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="17"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16"/>
@@ -3179,8 +3302,9 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
       <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="17"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16"/>
@@ -3192,8 +3316,9 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
       <c r="I84" s="13"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="17"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16"/>
@@ -3205,8 +3330,9 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="17"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16"/>
@@ -3218,8 +3344,9 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="17"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16"/>
@@ -3231,8 +3358,9 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="17"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16"/>
@@ -3244,8 +3372,9 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
       <c r="I88" s="13"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="17"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="16"/>
@@ -3257,8 +3386,9 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="17"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="16"/>
@@ -3270,8 +3400,9 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
       <c r="I90" s="13"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="17"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="16"/>
@@ -3283,8 +3414,9 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="17"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="17"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16"/>
@@ -3296,8 +3428,9 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
       <c r="I92" s="13"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="17"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16"/>
@@ -3309,8 +3442,9 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="17"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="16"/>
@@ -3322,8 +3456,9 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
       <c r="I94" s="13"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="17"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="16"/>
@@ -3335,8 +3470,9 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="17"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="16"/>
@@ -3348,8 +3484,9 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
       <c r="I96" s="13"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="17"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="16"/>
@@ -3361,8 +3498,9 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
       <c r="I97" s="13"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="17"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="16"/>
@@ -3374,8 +3512,9 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
       <c r="I98" s="13"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="17"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="18"/>
@@ -3387,11 +3526,12 @@
       <c r="G99" s="21"/>
       <c r="H99" s="22"/>
       <c r="I99" s="23"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="25"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="25"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:E99 I4:I99" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
@@ -3404,6 +3544,10 @@
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:J99" type="list">
+      <formula1>Index!$F$2:$F$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3412,6 +3556,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3426,12 +3571,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.98"/>
@@ -3458,42 +3603,42 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -3502,21 +3647,21 @@
         <v>100</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -3525,7 +3670,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,3717 +5352,3733 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="6" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="7" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="44" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="44" t="s">
         <v>47</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>64</v>
-      </c>
       <c r="D51" s="44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>107</v>
-      </c>
       <c r="D53" s="44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="44" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="44" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="44" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>127</v>
-      </c>
       <c r="D78" s="44" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="44" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="44" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="44" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="44" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="44" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D102" s="44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D103" s="44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D104" s="44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D105" s="44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D106" s="44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="44" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D107" s="44" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D108" s="44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="44" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D110" s="44" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D111" s="44" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="44" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D112" s="44" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="44" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D113" s="44" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="44" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D114" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="44" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D115" s="44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="44" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D116" s="44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="44" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D117" s="44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="44" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D118" s="44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="44" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D119" s="44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="44" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D120" s="44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="44" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D121" s="44" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D122" s="44" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D123" s="44" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D126" s="44" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D127" s="44" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D128" s="44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D129" s="44" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D130" s="44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D131" s="44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="44" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="44" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D133" s="44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="44" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D134" s="44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D135" s="44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="44" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D136" s="44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="44" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D137" s="44" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D138" s="44" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="44" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="44" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D140" s="44" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="44" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="44" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D142" s="44" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="44" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D143" s="44" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="44" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D144" s="44" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="44" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D145" s="44" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D146" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D147" s="44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="44" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D148" s="44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D149" s="44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D150" s="44" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D151" s="44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D152" s="44" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D153" s="44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D154" s="44" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="44" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D155" s="44" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D156" s="44" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D157" s="45" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="44" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D158" s="44" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="44" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D159" s="44" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="44" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D160" s="44" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="44" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D161" s="44" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="44" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D162" s="44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="44" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D163" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="44" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D164" s="44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="44" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D165" s="44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="44" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D166" s="44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="44" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D167" s="44" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="44" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D168" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="44" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D169" s="44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D170" s="44" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D171" s="44" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D172" s="44" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D173" s="45" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="44" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D174" s="44" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D175" s="44" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D176" s="44" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="44" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D177" s="44" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="44" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D178" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D179" s="44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D180" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D181" s="44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="44" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D182" s="44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="44" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D183" s="44" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="44" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D184" s="44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="44" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D185" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="44" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D186" s="44" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="44" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D187" s="44" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="44" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D188" s="44" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="44" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D189" s="45" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="44" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D190" s="44" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D191" s="44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="44" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D192" s="44" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="44" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D193" s="44" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D194" s="44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="44" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D195" s="44" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D196" s="44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D197" s="44" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D198" s="44" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D199" s="44" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D200" s="44" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="44" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D201" s="44" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="44" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D202" s="44" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="44" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D203" s="44" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="44" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D204" s="44" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="44" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D205" s="45" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="44" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D206" s="44" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="44" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D207" s="44" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="44" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D208" s="44" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="44" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D209" s="44" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D210" s="44" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D211" s="44" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D212" s="44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="44" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D213" s="44" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="44" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D214" s="44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="44" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D215" s="44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="44" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D216" s="44" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="44" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D217" s="44" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D218" s="44" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="44" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D219" s="44" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D220" s="44" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D221" s="45" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D222" s="44" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="44" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D223" s="44" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="44" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D224" s="44" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="44" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D225" s="44" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="44" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D226" s="44" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="44" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D227" s="44" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="44" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D228" s="44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="44" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D229" s="44" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="44" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D230" s="44" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="44" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D231" s="44" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="44" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D232" s="44" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="44" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D233" s="44" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="44" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D234" s="44" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="44" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D235" s="44" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="44" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D236" s="44" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="44" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D237" s="45" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="44" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D238" s="44" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="44" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D239" s="44" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="44" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D240" s="44" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="44" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D241" s="44" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D242" s="44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D243" s="44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="44" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D244" s="44" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="44" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D245" s="44" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D246" s="44" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D247" s="44" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D248" s="44" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="44" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D249" s="44" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="44" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D250" s="44" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="44" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D251" s="44" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="44" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D252" s="44" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="44" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D253" s="45" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="44" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D254" s="44" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="44" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D255" s="44" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="44" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D256" s="44" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="44" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D257" s="44" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="44" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D258" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="44" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D259" s="44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="44" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D260" s="44" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="44" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D261" s="44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="44" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D262" s="44" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="44" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D263" s="44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="44" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D264" s="44" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="44" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D265" s="44" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="44" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D266" s="44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="44" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D267" s="44" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="44" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D268" s="44" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="44" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D269" s="45" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="44" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D270" s="44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D271" s="44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="44" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D272" s="44" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="44" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D273" s="44" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="44" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D274" s="44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="44" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D275" s="44" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="44" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D276" s="44" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="44" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D277" s="44" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="44" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D278" s="44" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="44" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D279" s="44" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="44" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D280" s="44" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="44" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D281" s="44" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="44" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D282" s="44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="44" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D283" s="44" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="44" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D284" s="44" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="44" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D285" s="45" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="44" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D286" s="44" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="44" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D287" s="44" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="44" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D288" s="44" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="44" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D289" s="44" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D290" s="44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D291" s="44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="44" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D292" s="44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D293" s="44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="44" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D294" s="44" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D295" s="44" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="44" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D296" s="44" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="44" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D297" s="44" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="44" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D298" s="44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="44" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D299" s="44" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="44" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D300" s="44" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="44" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D301" s="45" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="44" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D302" s="44" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="44" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D303" s="44" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="44" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D304" s="44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="44" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D305" s="44" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D306" s="44" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="44" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D307" s="44" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="44" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D308" s="44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="44" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D309" s="44" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="44" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D310" s="44" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="44" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D311" s="44" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="44" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D312" s="44" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="44" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D313" s="44" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="44" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D314" s="44" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D315" s="44" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="44" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D316" s="44" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D317" s="45" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D318" s="44" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="44" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D319" s="44" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="44" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D320" s="44" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="44" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D321" s="44" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="44" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D322" s="44" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="44" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D323" s="44" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="44" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D324" s="44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D325" s="44" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="44" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D326" s="44" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="44" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D327" s="44" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="44" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D328" s="44" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="44" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D329" s="44" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D330" s="44" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="44" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D331" s="44" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="44" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D332" s="44" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="44" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D333" s="45" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="44" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D334" s="44" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="44" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D335" s="44" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="44" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D336" s="44" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="44" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D337" s="44" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D338" s="44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="44" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D339" s="44" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D340" s="44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D341" s="44" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="44" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D342" s="44" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="44" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D343" s="44" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="44" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D344" s="44" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D345" s="44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="44" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D346" s="44" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="44" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D347" s="44" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="44" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D348" s="44" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="44" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D349" s="45" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="44" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D350" s="44" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="44" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D351" s="44" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="44" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D352" s="44" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="44" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D353" s="44" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="44" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D354" s="44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="44" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D355" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D356" s="44" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="44" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D357" s="44" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="44" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D358" s="44" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="44" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D359" s="44" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="44" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D360" s="44" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="44" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D361" s="44" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D362" s="44" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D363" s="44" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D364" s="44" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D365" s="45" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D366" s="44" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D367" s="44" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="44" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D368" s="44" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="44" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D369" s="44" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="44" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D370" s="44" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="44" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D371" s="44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="44" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D372" s="44" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="44" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D373" s="44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="44" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D374" s="44" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="44" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D375" s="44" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="44" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D376" s="44" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="44" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D377" s="44" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="44" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D378" s="44" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="44" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D379" s="44" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="44" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D380" s="44" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="44" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D381" s="45" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="44" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D382" s="44" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="44" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D383" s="44" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="44" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D384" s="44" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="44" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D385" s="44" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
